--- a/directory.xlsx
+++ b/directory.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="math_dept" localSheetId="0">Sheet1!$A$1:$E$82</definedName>
+    <definedName name="math_dept" localSheetId="0">Sheet1!$B$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -200,15 +200,6 @@
     <t xml:space="preserve"> Robert</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phillip Griffiths Professor of Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and Electrical &amp; Computer Engineering</t>
-  </si>
-  <si>
     <t>Cornelis</t>
   </si>
   <si>
@@ -639,6 +630,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Benjamin Powell Professor &amp; Professor of Mathematics, Physics, and Business Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phillip Griffiths Professor of Computer Science, Mathematics,  and Electrical &amp; Computer Engineering</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
   </si>
 </sst>
 </file>
@@ -687,17 +687,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1031,374 +1039,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
       <c r="C21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1406,21 +1414,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1428,10 +1436,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -1439,21 +1447,21 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1461,43 +1469,43 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1505,13 +1513,13 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1519,18 +1527,18 @@
         <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1538,10 +1546,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1549,10 +1557,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -1560,43 +1568,43 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1604,32 +1612,32 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1637,43 +1645,43 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1681,10 +1689,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -1692,10 +1700,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1703,43 +1711,43 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -1747,21 +1755,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1769,10 +1777,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -1780,65 +1788,65 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -1846,21 +1854,21 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -1868,32 +1876,32 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1901,10 +1909,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -1912,10 +1920,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -1923,10 +1931,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
@@ -1934,10 +1942,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -1945,10 +1953,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
